--- a/docs/mcode-r4/shr-core-Laterality-extension.xlsx
+++ b/docs/mcode-r4/shr-core-Laterality-extension.xlsx
@@ -223,7 +223,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Laterality-extension</t>
+    <t>http://hl7.org/fhir/us/mcode/StructureDefinition/shr-core-Laterality-extension</t>
   </si>
   <si>
     <t>Extension.valueCodeableConcept</t>
@@ -242,7 +242,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/odh/ValueSet/shr-core-LateralityVS</t>
+    <t>http://hl7.org/fhir/us/mcode/ValueSet/shr-core-LateralityVS</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -427,7 +427,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.85546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="55.48046875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>

--- a/docs/mcode-r4/shr-core-Laterality-extension.xlsx
+++ b/docs/mcode-r4/shr-core-Laterality-extension.xlsx
@@ -139,11 +139,11 @@
   <si>
     <t>Body side of the body location, if needed to distinguish from a similar location on the other side of the body.
 The laterality element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
-+ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
-+ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
-+ Relation to landmark: The location relative to a landmark is specified by:
-- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
-- Specifying the direction and distance from the landmark to the body location.
+* Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
+* Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
+* Relation to landmark: The location relative to a landmark is specified by:
+1. Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+2. Specifying the direction and distance from the landmark to the body location.
 Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
   </si>
   <si>
@@ -242,7 +242,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/mcode/ValueSet/shr-core-LateralityVS</t>
+    <t>http://hl7.org/fhir/ValueSet/bodysite-laterality</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -427,7 +427,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.48046875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="43.2421875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
